--- a/Table 1 - Global and Regional Nutrient Avail RCP8p5 wCO2.xlsx
+++ b/Table 1 - Global and Regional Nutrient Avail RCP8p5 wCO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\Work\R\Nutrition\output\Final Figure Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Dropbox (IFPRI)\Everything\RTI-EPA-CCnutrients\Errata\ForGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0155FBC8-4962-4616-8BA1-BCFB2FCD839B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2DE91F-C3D2-4837-B000-2B3E15F33417}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{1D396383-2707-4C8F-89B2-F2456F77D705}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D396383-2707-4C8F-89B2-F2456F77D705}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -302,6 +303,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -312,12 +319,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -637,45 +638,45 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
     <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="26"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>2010</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -696,7 +697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -738,7 +739,7 @@
         <v>109.344076556582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -767,7 +768,7 @@
         <v>131.30320467864399</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -796,7 +797,7 @@
         <v>132.159190653845</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -825,7 +826,7 @@
         <v>127.58267129886499</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -854,7 +855,7 @@
         <v>109.19605447571</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -883,7 +884,7 @@
         <v>120.69344517344901</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -912,7 +913,7 @@
         <v>153.99848852515399</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -941,7 +942,7 @@
         <v>91.617455318619193</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -970,7 +971,7 @@
         <v>81.880591758500898</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -983,7 +984,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1003,16 +1004,16 @@
         <v>28.0174844561583</v>
       </c>
       <c r="G15" s="10">
-        <v>27.38912530028</v>
+        <v>27.465440241099206</v>
       </c>
       <c r="H15" s="19">
-        <v>26.678502018575699</v>
+        <v>26.822806633942893</v>
       </c>
       <c r="I15" s="19">
-        <v>27.886244782230101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27.891794959744313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1032,16 +1033,16 @@
         <v>32.315623669566399</v>
       </c>
       <c r="G16" s="10">
-        <v>31.608721286526698</v>
+        <v>31.616444051595622</v>
       </c>
       <c r="H16" s="19">
-        <v>30.830692623741601</v>
+        <v>30.845295670417421</v>
       </c>
       <c r="I16" s="19">
-        <v>32.097597647417601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32.098159303059035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1061,16 +1062,16 @@
         <v>23.838449612008301</v>
       </c>
       <c r="G17" s="10">
-        <v>23.580437024504601</v>
+        <v>23.580524686382418</v>
       </c>
       <c r="H17" s="19">
-        <v>23.173633340379698</v>
+        <v>23.173799101021263</v>
       </c>
       <c r="I17" s="19">
-        <v>23.865219275361799</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23.865225650771166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -1090,16 +1091,16 @@
         <v>26.446011919519801</v>
       </c>
       <c r="G18" s="10">
-        <v>26.1978311005827</v>
+        <v>26.201010597610512</v>
       </c>
       <c r="H18" s="19">
-        <v>25.763946650415399</v>
+        <v>25.76995879024981</v>
       </c>
       <c r="I18" s="19">
-        <v>26.5184159453242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26.518647181471671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1119,16 +1120,16 @@
         <v>22.825955611054301</v>
       </c>
       <c r="G19" s="10">
-        <v>22.343556161319999</v>
+        <v>22.346410020497366</v>
       </c>
       <c r="H19" s="19">
-        <v>21.7813832672256</v>
+        <v>21.786779655488136</v>
       </c>
       <c r="I19" s="19">
-        <v>22.757300857359699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22.7575084107545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1148,16 +1149,16 @@
         <v>28.283797392055199</v>
       </c>
       <c r="G20" s="10">
-        <v>27.8401576906349</v>
+        <v>27.856106769563876</v>
       </c>
       <c r="H20" s="19">
-        <v>27.263428446453201</v>
+        <v>27.293586704791668</v>
       </c>
       <c r="I20" s="19">
-        <v>28.2833806879745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28.284540620987599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1177,16 +1178,16 @@
         <v>25.361672248085402</v>
       </c>
       <c r="G21" s="10">
-        <v>25.064184063746001</v>
+        <v>25.068820152899647</v>
       </c>
       <c r="H21" s="19">
-        <v>24.649873895249002</v>
+        <v>24.658640318375713</v>
       </c>
       <c r="I21" s="19">
-        <v>25.355322469668302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25.355659639788648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1206,16 +1207,16 @@
         <v>26.299115038870202</v>
       </c>
       <c r="G22" s="10">
-        <v>25.6067060508304</v>
+        <v>25.674992310269783</v>
       </c>
       <c r="H22" s="19">
-        <v>24.802223439438599</v>
+        <v>24.93134654819676</v>
       </c>
       <c r="I22" s="19">
-        <v>26.121285882821599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26.12625215623542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1235,16 +1236,16 @@
         <v>32.618775564288597</v>
       </c>
       <c r="G23" s="12">
-        <v>31.551169368792301</v>
+        <v>31.887886867539834</v>
       </c>
       <c r="H23" s="6">
-        <v>30.481376374677598</v>
+        <v>31.1180785541275</v>
       </c>
       <c r="I23" s="6">
-        <v>32.3646421509278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32.389130696291296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1258,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>16.831428721579002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>19.226587313764501</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>20.432759441004801</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>20.9038176124023</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>17.6494678148281</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>20.0309053526938</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>23.192117630883999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>12.5437932748973</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
